--- a/Entrega 2/Preparação de Dados/Dados_Preparados_CRISP_DM.xlsx
+++ b/Entrega 2/Preparação de Dados/Dados_Preparados_CRISP_DM.xlsx
@@ -34,25 +34,25 @@
     <t>Vendas</t>
   </si>
   <si>
-    <t>Saturday</t>
+    <t>Sábado</t>
   </si>
   <si>
-    <t>Sunday</t>
+    <t>Domingo</t>
   </si>
   <si>
-    <t>Monday</t>
+    <t>Segunda-feira</t>
   </si>
   <si>
-    <t>Tuesday</t>
+    <t>Terça-feira</t>
   </si>
   <si>
-    <t>Wednesday</t>
+    <t>Quarta-feira</t>
   </si>
   <si>
-    <t>Thursday</t>
+    <t>Quinta-feira</t>
   </si>
   <si>
-    <t>Friday</t>
+    <t>Sexta-feira</t>
   </si>
 </sst>
 </file>
